--- a/Experimentos/teste_geral/Dataset8/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset8/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A1AE267-A63B-49FF-BD45-DE2531FDE997}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC9991D-FFAE-448E-B9CD-789BC65AADD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-2220" yWindow="4215" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>Tournament(4)</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>PUZZLE 8 - BEST PER EXPERIMENT</t>
   </si>
+  <si>
+    <t>Scramble</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,19 +638,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
+    <sortCondition ref="I2:I258"/>
+  </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A131" sqref="A131:J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +978,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1001,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1021,13 +1024,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>3000</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1036,59 +1039,59 @@
         <v>0.7</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>636</v>
+        <v>308</v>
       </c>
       <c r="J3">
-        <v>6840</v>
+        <v>14237</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>3000</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>0.4</v>
       </c>
       <c r="I4">
-        <v>692</v>
+        <v>314</v>
       </c>
       <c r="J4">
-        <v>7559</v>
+        <v>18390</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>3000</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0.7</v>
@@ -1097,71 +1100,71 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I5">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="J5">
-        <v>6887</v>
+        <v>17553</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>3000</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J6">
-        <v>6942</v>
+        <v>14217</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B7">
         <v>3000</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>0.2</v>
       </c>
       <c r="I7">
-        <v>548</v>
+        <v>336</v>
       </c>
       <c r="J7">
-        <v>7099</v>
+        <v>18182</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1172,59 +1175,59 @@
         <v>3000</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.7</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>0.4</v>
       </c>
       <c r="I8">
-        <v>1134</v>
+        <v>338</v>
       </c>
       <c r="J8">
-        <v>8871</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B9">
         <v>3000</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0.7</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>0.2</v>
       </c>
       <c r="I9">
-        <v>660</v>
+        <v>338</v>
       </c>
       <c r="J9">
-        <v>7223</v>
+        <v>17740</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <v>3000</v>
@@ -1239,27 +1242,27 @@
         <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I10">
-        <v>1136</v>
+        <v>340</v>
       </c>
       <c r="J10">
-        <v>8805</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <v>3000</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1268,16 +1271,16 @@
         <v>0.8</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I11">
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="J11">
-        <v>7144</v>
+        <v>14221</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,25 +1291,25 @@
         <v>3000</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>0.4</v>
       </c>
       <c r="I12">
-        <v>952</v>
+        <v>340</v>
       </c>
       <c r="J12">
-        <v>8795</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="J13">
-        <v>7187</v>
+        <v>6942</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,7 +1349,7 @@
         <v>3000</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1358,18 +1361,18 @@
         <v>10</v>
       </c>
       <c r="G14">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J14">
-        <v>7311</v>
+        <v>7021</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B15">
         <v>3000</v>
@@ -1378,27 +1381,27 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0.8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>0.2</v>
       </c>
       <c r="I15">
-        <v>560</v>
+        <v>342</v>
       </c>
       <c r="J15">
-        <v>7431</v>
+        <v>19033</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B16">
         <v>3000</v>
@@ -1407,22 +1410,22 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>1144</v>
+        <v>344</v>
       </c>
       <c r="J16">
-        <v>9154</v>
+        <v>17828</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1433,7 +1436,7 @@
         <v>3000</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1442,16 +1445,16 @@
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I17">
-        <v>650</v>
+        <v>346</v>
       </c>
       <c r="J17">
-        <v>7711</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1465,22 +1468,22 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0.8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>0.4</v>
       </c>
       <c r="I18">
-        <v>1138</v>
+        <v>346</v>
       </c>
       <c r="J18">
-        <v>9115</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,71 +1494,71 @@
         <v>3000</v>
       </c>
       <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
       <c r="E19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
-        <v>680</v>
+        <v>346</v>
       </c>
       <c r="J19">
-        <v>6665</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B20">
         <v>3000</v>
       </c>
       <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
       <c r="E20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>0.4</v>
       </c>
       <c r="I20">
-        <v>696</v>
+        <v>346</v>
       </c>
       <c r="J20">
-        <v>6967</v>
+        <v>18845</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B21">
         <v>3000</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -1564,10 +1567,10 @@
         <v>0.2</v>
       </c>
       <c r="I21">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J21">
-        <v>6809</v>
+        <v>14673</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1578,13 +1581,13 @@
         <v>3000</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
@@ -1593,10 +1596,10 @@
         <v>0.4</v>
       </c>
       <c r="I22">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="J22">
-        <v>6857</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1607,25 +1610,25 @@
         <v>3000</v>
       </c>
       <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
       <c r="E23">
         <v>0.7</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>0.2</v>
       </c>
       <c r="I23">
-        <v>844</v>
+        <v>348</v>
       </c>
       <c r="J23">
-        <v>7035</v>
+        <v>8826</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1636,25 +1639,25 @@
         <v>3000</v>
       </c>
       <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
       <c r="E24">
         <v>0.7</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>0.4</v>
       </c>
       <c r="I24">
-        <v>662</v>
+        <v>350</v>
       </c>
       <c r="J24">
-        <v>7284</v>
+        <v>9005</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,7 +1668,7 @@
         <v>3000</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1674,45 +1677,45 @@
         <v>0.7</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0.2</v>
       </c>
       <c r="I25">
-        <v>942</v>
+        <v>352</v>
       </c>
       <c r="J25">
-        <v>7095</v>
+        <v>6809</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B26">
         <v>3000</v>
       </c>
       <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
       <c r="E26">
         <v>0.7</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>0.4</v>
       </c>
       <c r="I26">
-        <v>736</v>
+        <v>352</v>
       </c>
       <c r="J26">
-        <v>7299</v>
+        <v>17732</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,25 +1726,25 @@
         <v>3000</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I27">
-        <v>716</v>
+        <v>354</v>
       </c>
       <c r="J27">
-        <v>7019</v>
+        <v>6857</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1752,25 +1755,25 @@
         <v>3000</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
       </c>
       <c r="E28">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I28">
-        <v>688</v>
+        <v>360</v>
       </c>
       <c r="J28">
-        <v>7022</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1781,10 +1784,10 @@
         <v>3000</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0.8</v>
@@ -1796,24 +1799,24 @@
         <v>0.2</v>
       </c>
       <c r="I29">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="J29">
-        <v>7021</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B30">
         <v>3000</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0.8</v>
@@ -1822,100 +1825,100 @@
         <v>10</v>
       </c>
       <c r="G30">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I30">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="J30">
-        <v>7173</v>
+        <v>13087</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B31">
         <v>3000</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
       </c>
       <c r="E31">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I31">
-        <v>854</v>
+        <v>362</v>
       </c>
       <c r="J31">
-        <v>7207</v>
+        <v>14183</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B32">
         <v>3000</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
       <c r="E32">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
-        <v>634</v>
+        <v>362</v>
       </c>
       <c r="J32">
-        <v>7424</v>
+        <v>14669</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B33">
         <v>3000</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>0.2</v>
       </c>
       <c r="I33">
-        <v>880</v>
+        <v>362</v>
       </c>
       <c r="J33">
-        <v>7294</v>
+        <v>12997</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1926,25 +1929,25 @@
         <v>3000</v>
       </c>
       <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
       <c r="E34">
         <v>0.8</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I34">
-        <v>674</v>
+        <v>362</v>
       </c>
       <c r="J34">
-        <v>7567</v>
+        <v>9282</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1961,19 +1964,19 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I35">
-        <v>544</v>
+        <v>364</v>
       </c>
       <c r="J35">
-        <v>14216</v>
+        <v>15144</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1984,30 +1987,30 @@
         <v>3000</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36">
         <v>0.7</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>0.4</v>
       </c>
       <c r="I36">
-        <v>994</v>
+        <v>364</v>
       </c>
       <c r="J36">
-        <v>17331</v>
+        <v>13992</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>3000</v>
@@ -2019,106 +2022,106 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I37">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="J37">
-        <v>13800</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>3000</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="J38">
-        <v>14183</v>
+        <v>9361</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>3000</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>0.7</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I39">
-        <v>474</v>
+        <v>366</v>
       </c>
       <c r="J39">
-        <v>14863</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B40">
         <v>3000</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <v>0.7</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
-        <v>1140</v>
+        <v>368</v>
       </c>
       <c r="J40">
-        <v>17905</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2129,30 +2132,30 @@
         <v>3000</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
-        <v>544</v>
+        <v>370</v>
       </c>
       <c r="J41">
-        <v>15197</v>
+        <v>13189</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>3000</v>
@@ -2164,24 +2167,24 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
-        <v>1144</v>
+        <v>372</v>
       </c>
       <c r="J42">
-        <v>17718</v>
+        <v>7187</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>3000</v>
@@ -2190,51 +2193,51 @@
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E43">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0.2</v>
       </c>
       <c r="I43">
-        <v>480</v>
+        <v>380</v>
       </c>
       <c r="J43">
-        <v>15505</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>3000</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I44">
-        <v>1074</v>
+        <v>382</v>
       </c>
       <c r="J44">
-        <v>18703</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2245,13 +2248,13 @@
         <v>3000</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2260,10 +2263,10 @@
         <v>0.2</v>
       </c>
       <c r="I45">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="J45">
-        <v>14673</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2274,13 +2277,13 @@
         <v>3000</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E46">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -2289,39 +2292,39 @@
         <v>0.4</v>
       </c>
       <c r="I46">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="J46">
-        <v>15144</v>
+        <v>11861</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B47">
         <v>3000</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G47">
         <v>0.2</v>
       </c>
       <c r="I47">
-        <v>1076</v>
+        <v>398</v>
       </c>
       <c r="J47">
-        <v>18475</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2332,25 +2335,25 @@
         <v>3000</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>0.8</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I48">
-        <v>1128</v>
+        <v>398</v>
       </c>
       <c r="J48">
-        <v>18669</v>
+        <v>11822</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2370,16 +2373,16 @@
         <v>0.8</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="I49">
-        <v>1064</v>
+        <v>480</v>
       </c>
       <c r="J49">
-        <v>18623</v>
+        <v>15505</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2399,16 +2402,16 @@
         <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G50">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I50">
-        <v>1140</v>
+        <v>486</v>
       </c>
       <c r="J50">
-        <v>19372</v>
+        <v>17106</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2419,7 +2422,7 @@
         <v>3000</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
@@ -2428,16 +2431,16 @@
         <v>0.7</v>
       </c>
       <c r="F51" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G51">
         <v>0.2</v>
       </c>
       <c r="I51">
-        <v>696</v>
+        <v>494</v>
       </c>
       <c r="J51">
-        <v>13534</v>
+        <v>17418</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2448,25 +2451,25 @@
         <v>3000</v>
       </c>
       <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>13</v>
       </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G52">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I52">
-        <v>646</v>
+        <v>502</v>
       </c>
       <c r="J52">
-        <v>13809</v>
+        <v>23355</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2477,25 +2480,25 @@
         <v>3000</v>
       </c>
       <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G53">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I53">
-        <v>362</v>
+        <v>504</v>
       </c>
       <c r="J53">
-        <v>14669</v>
+        <v>23870</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,25 +2509,25 @@
         <v>3000</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I54">
-        <v>308</v>
+        <v>506</v>
       </c>
       <c r="J54">
-        <v>14237</v>
+        <v>15926</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2535,25 +2538,25 @@
         <v>3000</v>
       </c>
       <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
       <c r="E55">
         <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>0.2</v>
       </c>
       <c r="I55">
-        <v>756</v>
+        <v>512</v>
       </c>
       <c r="J55">
-        <v>13975</v>
+        <v>22197</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,25 +2567,25 @@
         <v>3000</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E56">
         <v>0.7</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I56">
-        <v>600</v>
+        <v>512</v>
       </c>
       <c r="J56">
-        <v>14902</v>
+        <v>14328</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,25 +2596,25 @@
         <v>3000</v>
       </c>
       <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
       <c r="E57">
         <v>0.7</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G57">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I57">
-        <v>868</v>
+        <v>542</v>
       </c>
       <c r="J57">
-        <v>14928</v>
+        <v>22803</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2622,25 +2625,25 @@
         <v>3000</v>
       </c>
       <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
       <c r="E58">
         <v>0.7</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G58">
         <v>0.4</v>
       </c>
       <c r="I58">
-        <v>676</v>
+        <v>542</v>
       </c>
       <c r="J58">
-        <v>15116</v>
+        <v>22677</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2651,13 +2654,13 @@
         <v>3000</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -2666,10 +2669,10 @@
         <v>0.2</v>
       </c>
       <c r="I59">
-        <v>656</v>
+        <v>544</v>
       </c>
       <c r="J59">
-        <v>13884</v>
+        <v>14216</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2680,36 +2683,36 @@
         <v>3000</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
       <c r="E60">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G60">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I60">
-        <v>622</v>
+        <v>546</v>
       </c>
       <c r="J60">
-        <v>14678</v>
+        <v>18862</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>3000</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -2718,16 +2721,16 @@
         <v>0.8</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61">
         <v>0.2</v>
       </c>
       <c r="I61">
-        <v>336</v>
+        <v>548</v>
       </c>
       <c r="J61">
-        <v>14217</v>
+        <v>9459</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,112 +2741,112 @@
         <v>3000</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G62">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I62">
-        <v>340</v>
+        <v>548</v>
       </c>
       <c r="J62">
-        <v>14221</v>
+        <v>14645</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>3000</v>
       </c>
       <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
         <v>13</v>
       </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
       <c r="E63">
         <v>0.8</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G63">
         <v>0.2</v>
       </c>
       <c r="I63">
-        <v>754</v>
+        <v>550</v>
       </c>
       <c r="J63">
-        <v>14265</v>
+        <v>9543</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>3000</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>0.4</v>
       </c>
       <c r="I64">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="J64">
-        <v>14879</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>3000</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G65">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I65">
-        <v>768</v>
+        <v>556</v>
       </c>
       <c r="J65">
-        <v>14832</v>
+        <v>7592</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,30 +2857,30 @@
         <v>3000</v>
       </c>
       <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
       <c r="E66">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>0.4</v>
       </c>
       <c r="I66">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="J66">
-        <v>14924</v>
+        <v>22120</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B67">
         <v>3000</v>
@@ -2886,33 +2889,33 @@
         <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F67" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <v>0.2</v>
       </c>
       <c r="I67">
-        <v>896</v>
+        <v>568</v>
       </c>
       <c r="J67">
-        <v>6846</v>
+        <v>23248</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B68">
         <v>3000</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
         <v>14</v>
@@ -2924,13 +2927,13 @@
         <v>9</v>
       </c>
       <c r="G68">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I68">
-        <v>1106</v>
+        <v>576</v>
       </c>
       <c r="J68">
-        <v>7922</v>
+        <v>10928</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2941,7 +2944,7 @@
         <v>3000</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
         <v>14</v>
@@ -2950,16 +2953,16 @@
         <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I69">
-        <v>1108</v>
+        <v>576</v>
       </c>
       <c r="J69">
-        <v>7720</v>
+        <v>7636</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2970,7 +2973,7 @@
         <v>3000</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -2979,74 +2982,74 @@
         <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G70">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I70">
-        <v>1112</v>
+        <v>578</v>
       </c>
       <c r="J70">
-        <v>7704</v>
+        <v>7341</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B71">
         <v>3000</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
       </c>
       <c r="E71">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G71">
         <v>0.2</v>
       </c>
       <c r="I71">
-        <v>1146</v>
+        <v>580</v>
       </c>
       <c r="J71">
-        <v>7806</v>
+        <v>15561</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>3000</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G72">
         <v>0.4</v>
       </c>
       <c r="I72">
-        <v>1138</v>
+        <v>584</v>
       </c>
       <c r="J72">
-        <v>7815</v>
+        <v>14105</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3057,7 +3060,7 @@
         <v>3000</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
         <v>14</v>
@@ -3066,21 +3069,21 @@
         <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G73">
         <v>0.2</v>
       </c>
       <c r="I73">
-        <v>1136</v>
+        <v>584</v>
       </c>
       <c r="J73">
-        <v>7773</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>3000</v>
@@ -3089,22 +3092,22 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G74">
         <v>0.4</v>
       </c>
       <c r="I74">
-        <v>1160</v>
+        <v>586</v>
       </c>
       <c r="J74">
-        <v>7809</v>
+        <v>19195</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,7 +3121,7 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E75">
         <v>0.8</v>
@@ -3130,15 +3133,15 @@
         <v>0.2</v>
       </c>
       <c r="I75">
-        <v>1116</v>
+        <v>590</v>
       </c>
       <c r="J75">
-        <v>7889</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B76">
         <v>3000</v>
@@ -3147,51 +3150,51 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F76" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I76">
-        <v>1136</v>
+        <v>590</v>
       </c>
       <c r="J76">
-        <v>7874</v>
+        <v>22049</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B77">
         <v>3000</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E77">
         <v>0.8</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G77">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
-        <v>1140</v>
+        <v>592</v>
       </c>
       <c r="J77">
-        <v>7868</v>
+        <v>23950</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,7 +3205,7 @@
         <v>3000</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -3211,16 +3214,16 @@
         <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G78">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I78">
-        <v>1110</v>
+        <v>592</v>
       </c>
       <c r="J78">
-        <v>7861</v>
+        <v>7184</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,51 +3237,51 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E79">
         <v>0.8</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G79">
         <v>0.2</v>
       </c>
       <c r="I79">
-        <v>1150</v>
+        <v>594</v>
       </c>
       <c r="J79">
-        <v>7919</v>
+        <v>9649</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B80">
         <v>3000</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80">
         <v>0.8</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G80">
         <v>0.4</v>
       </c>
       <c r="I80">
-        <v>1154</v>
+        <v>594</v>
       </c>
       <c r="J80">
-        <v>7956</v>
+        <v>15144</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3292,27 +3295,27 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E81">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G81">
         <v>0.2</v>
       </c>
       <c r="I81">
-        <v>1148</v>
+        <v>598</v>
       </c>
       <c r="J81">
-        <v>7914</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>3000</v>
@@ -3321,22 +3324,22 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <v>0.8</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G82">
         <v>0.4</v>
       </c>
       <c r="I82">
-        <v>1160</v>
+        <v>598</v>
       </c>
       <c r="J82">
-        <v>7936</v>
+        <v>22613</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3347,83 +3350,83 @@
         <v>3000</v>
       </c>
       <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
-      </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G83">
         <v>0.2</v>
       </c>
       <c r="I83">
-        <v>804</v>
+        <v>602</v>
       </c>
       <c r="J83">
-        <v>6279</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>3000</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>0.7</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>752</v>
+        <v>604</v>
       </c>
       <c r="J84">
-        <v>6476</v>
+        <v>14258</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>3000</v>
       </c>
       <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" t="s">
         <v>13</v>
       </c>
-      <c r="D85" t="s">
-        <v>14</v>
-      </c>
       <c r="E85">
         <v>0.7</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I85">
-        <v>368</v>
+        <v>606</v>
       </c>
       <c r="J85">
-        <v>6380</v>
+        <v>17819</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3434,25 +3437,25 @@
         <v>3000</v>
       </c>
       <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
       <c r="E86">
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G86">
         <v>0.4</v>
       </c>
       <c r="I86">
-        <v>338</v>
+        <v>610</v>
       </c>
       <c r="J86">
-        <v>6350</v>
+        <v>11347</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3463,25 +3466,25 @@
         <v>3000</v>
       </c>
       <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
         <v>13</v>
       </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
       <c r="E87">
         <v>0.7</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G87">
         <v>0.2</v>
       </c>
       <c r="I87">
-        <v>996</v>
+        <v>612</v>
       </c>
       <c r="J87">
-        <v>6469</v>
+        <v>9177</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3492,25 +3495,25 @@
         <v>3000</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E88">
         <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G88">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I88">
-        <v>922</v>
+        <v>614</v>
       </c>
       <c r="J88">
-        <v>6917</v>
+        <v>9243</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3521,54 +3524,54 @@
         <v>3000</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
       </c>
       <c r="E89">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G89">
         <v>0.2</v>
       </c>
       <c r="I89">
-        <v>1022</v>
+        <v>616</v>
       </c>
       <c r="J89">
-        <v>6476</v>
+        <v>7178</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B90">
         <v>3000</v>
       </c>
       <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
         <v>13</v>
       </c>
-      <c r="D90" t="s">
-        <v>14</v>
-      </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G90">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I90">
-        <v>950</v>
+        <v>618</v>
       </c>
       <c r="J90">
-        <v>7001</v>
+        <v>19200</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3579,39 +3582,39 @@
         <v>3000</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G91">
         <v>0.2</v>
       </c>
       <c r="I91">
-        <v>758</v>
+        <v>620</v>
       </c>
       <c r="J91">
-        <v>6425</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>3000</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E92">
         <v>0.8</v>
@@ -3623,39 +3626,39 @@
         <v>0.4</v>
       </c>
       <c r="I92">
-        <v>742</v>
+        <v>622</v>
       </c>
       <c r="J92">
-        <v>6519</v>
+        <v>14678</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B93">
         <v>3000</v>
       </c>
       <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="D93" t="s">
-        <v>14</v>
-      </c>
       <c r="E93">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
-        <v>360</v>
+        <v>628</v>
       </c>
       <c r="J93">
-        <v>6460</v>
+        <v>18695</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -3666,54 +3669,54 @@
         <v>3000</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>0.8</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G94">
         <v>0.4</v>
       </c>
       <c r="I94">
-        <v>348</v>
+        <v>630</v>
       </c>
       <c r="J94">
-        <v>6590</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B95">
         <v>3000</v>
       </c>
       <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
         <v>13</v>
       </c>
-      <c r="D95" t="s">
-        <v>14</v>
-      </c>
       <c r="E95">
         <v>0.8</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G95">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I95">
-        <v>968</v>
+        <v>630</v>
       </c>
       <c r="J95">
-        <v>6557</v>
+        <v>24901</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -3724,54 +3727,54 @@
         <v>3000</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
       </c>
       <c r="E96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I96">
-        <v>918</v>
+        <v>634</v>
       </c>
       <c r="J96">
-        <v>7066</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>3000</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G97">
         <v>0.2</v>
       </c>
       <c r="I97">
-        <v>984</v>
+        <v>634</v>
       </c>
       <c r="J97">
-        <v>6589</v>
+        <v>14009</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3782,30 +3785,30 @@
         <v>3000</v>
       </c>
       <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
         <v>13</v>
       </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
       <c r="E98">
         <v>0.8</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G98">
         <v>0.4</v>
       </c>
       <c r="I98">
-        <v>932</v>
+        <v>634</v>
       </c>
       <c r="J98">
-        <v>7027</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>3000</v>
@@ -3814,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>0.7</v>
@@ -3826,39 +3829,39 @@
         <v>0.2</v>
       </c>
       <c r="I99">
-        <v>1112</v>
+        <v>636</v>
       </c>
       <c r="J99">
-        <v>15477</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>3000</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F100" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G100">
         <v>0.4</v>
       </c>
       <c r="I100">
-        <v>1100</v>
+        <v>638</v>
       </c>
       <c r="J100">
-        <v>15489</v>
+        <v>11791</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3869,54 +3872,54 @@
         <v>3000</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G101">
         <v>0.2</v>
       </c>
       <c r="I101">
-        <v>1122</v>
+        <v>640</v>
       </c>
       <c r="J101">
-        <v>15460</v>
+        <v>23280</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>3000</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G102">
         <v>0.4</v>
       </c>
       <c r="I102">
-        <v>1128</v>
+        <v>644</v>
       </c>
       <c r="J102">
-        <v>15482</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3927,54 +3930,54 @@
         <v>3000</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G103">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I103">
-        <v>1142</v>
+        <v>646</v>
       </c>
       <c r="J103">
-        <v>15574</v>
+        <v>13809</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>3000</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G104">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I104">
-        <v>1152</v>
+        <v>646</v>
       </c>
       <c r="J104">
-        <v>15719</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -3985,30 +3988,30 @@
         <v>3000</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E105">
         <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
-        <v>1124</v>
+        <v>646</v>
       </c>
       <c r="J105">
-        <v>15581</v>
+        <v>13869</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>3000</v>
@@ -4017,22 +4020,22 @@
         <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G106">
         <v>0.4</v>
       </c>
       <c r="I106">
-        <v>1126</v>
+        <v>648</v>
       </c>
       <c r="J106">
-        <v>15647</v>
+        <v>11794</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -4043,54 +4046,54 @@
         <v>3000</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E107">
         <v>0.8</v>
       </c>
       <c r="F107" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G107">
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>1124</v>
+        <v>650</v>
       </c>
       <c r="J107">
-        <v>15795</v>
+        <v>13935</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>3000</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G108">
         <v>0.4</v>
       </c>
       <c r="I108">
-        <v>1122</v>
+        <v>652</v>
       </c>
       <c r="J108">
-        <v>15831</v>
+        <v>11556</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4101,7 +4104,7 @@
         <v>3000</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
         <v>14</v>
@@ -4110,27 +4113,27 @@
         <v>0.8</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109">
         <v>0.2</v>
       </c>
       <c r="I109">
-        <v>1126</v>
+        <v>654</v>
       </c>
       <c r="J109">
-        <v>15796</v>
+        <v>13233</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>3000</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
         <v>14</v>
@@ -4145,10 +4148,10 @@
         <v>0.4</v>
       </c>
       <c r="I110">
-        <v>1140</v>
+        <v>654</v>
       </c>
       <c r="J110">
-        <v>16080</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4159,25 +4162,25 @@
         <v>3000</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111">
         <v>0.8</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G111">
         <v>0.2</v>
       </c>
       <c r="I111">
-        <v>1152</v>
+        <v>654</v>
       </c>
       <c r="J111">
-        <v>16061</v>
+        <v>19176</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4188,7 +4191,7 @@
         <v>3000</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
         <v>14</v>
@@ -4197,16 +4200,16 @@
         <v>0.8</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G112">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I112">
-        <v>1156</v>
+        <v>654</v>
       </c>
       <c r="J112">
-        <v>16221</v>
+        <v>15231</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -4217,54 +4220,54 @@
         <v>3000</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E113">
         <v>0.8</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G113">
         <v>0.2</v>
       </c>
       <c r="I113">
-        <v>1144</v>
+        <v>656</v>
       </c>
       <c r="J113">
-        <v>16155</v>
+        <v>13884</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B114">
         <v>3000</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G114">
         <v>0.4</v>
       </c>
       <c r="I114">
-        <v>1118</v>
+        <v>658</v>
       </c>
       <c r="J114">
-        <v>16146</v>
+        <v>9524</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4275,83 +4278,83 @@
         <v>3000</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E115">
         <v>0.7</v>
       </c>
       <c r="F115" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G115">
         <v>0.2</v>
       </c>
       <c r="I115">
-        <v>782</v>
+        <v>658</v>
       </c>
       <c r="J115">
-        <v>13024</v>
+        <v>13777</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B116">
         <v>3000</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G116">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I116">
-        <v>746</v>
+        <v>660</v>
       </c>
       <c r="J116">
-        <v>12790</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>3000</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E117">
         <v>0.7</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G117">
         <v>0.2</v>
       </c>
       <c r="I117">
-        <v>362</v>
+        <v>664</v>
       </c>
       <c r="J117">
-        <v>12997</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -4362,83 +4365,83 @@
         <v>3000</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E118">
         <v>0.7</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G118">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I118">
-        <v>364</v>
+        <v>664</v>
       </c>
       <c r="J118">
-        <v>13992</v>
+        <v>13842</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <v>3000</v>
       </c>
       <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" t="s">
         <v>13</v>
       </c>
-      <c r="D119" t="s">
-        <v>14</v>
-      </c>
       <c r="E119">
         <v>0.7</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G119">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I119">
-        <v>956</v>
+        <v>664</v>
       </c>
       <c r="J119">
-        <v>12996</v>
+        <v>9413</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B120">
         <v>3000</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E120">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I120">
-        <v>850</v>
+        <v>668</v>
       </c>
       <c r="J120">
-        <v>13812</v>
+        <v>8941</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -4449,25 +4452,25 @@
         <v>3000</v>
       </c>
       <c r="C121" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s">
         <v>13</v>
       </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
       <c r="E121">
         <v>0.7</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G121">
         <v>0.2</v>
       </c>
       <c r="I121">
-        <v>980</v>
+        <v>670</v>
       </c>
       <c r="J121">
-        <v>13282</v>
+        <v>22164</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4478,25 +4481,25 @@
         <v>3000</v>
       </c>
       <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
         <v>13</v>
       </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
       <c r="E122">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G122">
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>874</v>
+        <v>674</v>
       </c>
       <c r="J122">
-        <v>14165</v>
+        <v>18621</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4507,13 +4510,13 @@
         <v>3000</v>
       </c>
       <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
         <v>13</v>
       </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
       <c r="E123">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F123" t="s">
         <v>9</v>
@@ -4522,97 +4525,97 @@
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>758</v>
+        <v>676</v>
       </c>
       <c r="J123">
-        <v>13304</v>
+        <v>17858</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>3000</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E124">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F124" t="s">
         <v>9</v>
       </c>
       <c r="G124">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I124">
-        <v>736</v>
+        <v>680</v>
       </c>
       <c r="J124">
-        <v>13076</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>3000</v>
       </c>
       <c r="C125" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E125">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G125">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I125">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="J125">
-        <v>13087</v>
+        <v>9395</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>3000</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <v>0.8</v>
       </c>
       <c r="F126" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G126">
         <v>0.4</v>
       </c>
       <c r="I126">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="J126">
-        <v>13189</v>
+        <v>8159</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -4623,141 +4626,141 @@
         <v>3000</v>
       </c>
       <c r="C127" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G127">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I127">
-        <v>948</v>
+        <v>680</v>
       </c>
       <c r="J127">
-        <v>12957</v>
+        <v>16338</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B128">
         <v>3000</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E128">
         <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G128">
         <v>0.4</v>
       </c>
       <c r="I128">
-        <v>906</v>
+        <v>686</v>
       </c>
       <c r="J128">
-        <v>14394</v>
+        <v>8335</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B129">
         <v>3000</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E129">
         <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G129">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I129">
-        <v>980</v>
+        <v>688</v>
       </c>
       <c r="J129">
-        <v>13147</v>
+        <v>7022</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B130">
         <v>3000</v>
       </c>
       <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
         <v>13</v>
       </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
       <c r="E130">
         <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G130">
         <v>0.4</v>
       </c>
       <c r="I130">
-        <v>932</v>
+        <v>690</v>
       </c>
       <c r="J130">
-        <v>14697</v>
+        <v>9422</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>3000</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G131">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I131">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="J131">
-        <v>9015</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -4771,7 +4774,7 @@
         <v>7</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.7</v>
@@ -4783,10 +4786,10 @@
         <v>0.4</v>
       </c>
       <c r="I132">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="J132">
-        <v>8904</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -4797,25 +4800,25 @@
         <v>3000</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E133">
         <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G133">
         <v>0.2</v>
       </c>
       <c r="I133">
-        <v>380</v>
+        <v>692</v>
       </c>
       <c r="J133">
-        <v>9000</v>
+        <v>11155</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -4826,83 +4829,83 @@
         <v>3000</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E134">
         <v>0.7</v>
       </c>
       <c r="F134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134">
         <v>0.4</v>
       </c>
       <c r="I134">
-        <v>350</v>
+        <v>696</v>
       </c>
       <c r="J134">
-        <v>9005</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B135">
         <v>3000</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D135" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E135">
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G135">
         <v>0.2</v>
       </c>
       <c r="I135">
-        <v>570</v>
+        <v>696</v>
       </c>
       <c r="J135">
-        <v>9315</v>
+        <v>13534</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>3000</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E136">
         <v>0.7</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
-        <v>910</v>
+        <v>696</v>
       </c>
       <c r="J136">
-        <v>8961</v>
+        <v>20111</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -4913,83 +4916,83 @@
         <v>3000</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E137">
         <v>0.7</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G137">
         <v>0.2</v>
       </c>
       <c r="I137">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="J137">
-        <v>9261</v>
+        <v>9266</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B138">
         <v>3000</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E138">
         <v>0.7</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G138">
         <v>0.4</v>
       </c>
       <c r="I138">
-        <v>1106</v>
+        <v>698</v>
       </c>
       <c r="J138">
-        <v>8521</v>
+        <v>16758</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B139">
         <v>3000</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E139">
         <v>0.8</v>
       </c>
       <c r="F139" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G139">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I139">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="J139">
-        <v>9465</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5003,22 +5006,22 @@
         <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G140">
         <v>0.4</v>
       </c>
       <c r="I140">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="J140">
-        <v>9422</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5032,51 +5035,51 @@
         <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G141">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I141">
-        <v>362</v>
+        <v>702</v>
       </c>
       <c r="J141">
-        <v>9282</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B142">
         <v>3000</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E142">
         <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I142">
-        <v>346</v>
+        <v>702</v>
       </c>
       <c r="J142">
-        <v>9361</v>
+        <v>18221</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5087,54 +5090,54 @@
         <v>3000</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G143">
         <v>0.2</v>
       </c>
       <c r="I143">
-        <v>556</v>
+        <v>702</v>
       </c>
       <c r="J143">
-        <v>9708</v>
+        <v>7757</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B144">
         <v>3000</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E144">
         <v>0.8</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G144">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I144">
-        <v>918</v>
+        <v>702</v>
       </c>
       <c r="J144">
-        <v>9213</v>
+        <v>15762</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5148,22 +5151,22 @@
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E145">
         <v>0.8</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G145">
         <v>0.2</v>
       </c>
       <c r="I145">
-        <v>676</v>
+        <v>704</v>
       </c>
       <c r="J145">
-        <v>9706</v>
+        <v>9465</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5177,36 +5180,36 @@
         <v>7</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E146">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G146">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I146">
-        <v>1110</v>
+        <v>706</v>
       </c>
       <c r="J146">
-        <v>8685</v>
+        <v>9015</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B147">
         <v>3000</v>
       </c>
       <c r="C147" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s">
         <v>13</v>
-      </c>
-      <c r="D147" t="s">
-        <v>15</v>
       </c>
       <c r="E147">
         <v>0.7</v>
@@ -5215,13 +5218,13 @@
         <v>9</v>
       </c>
       <c r="G147">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I147">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J147">
-        <v>9009</v>
+        <v>18464</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -5232,10 +5235,10 @@
         <v>3000</v>
       </c>
       <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
         <v>13</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
       </c>
       <c r="E148">
         <v>0.7</v>
@@ -5244,13 +5247,13 @@
         <v>9</v>
       </c>
       <c r="G148">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I148">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J148">
-        <v>8926</v>
+        <v>9009</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -5261,25 +5264,25 @@
         <v>3000</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G149">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I149">
-        <v>348</v>
+        <v>714</v>
       </c>
       <c r="J149">
-        <v>8826</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -5290,25 +5293,25 @@
         <v>3000</v>
       </c>
       <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
         <v>13</v>
       </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
       <c r="E150">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G150">
         <v>0.4</v>
       </c>
       <c r="I150">
-        <v>340</v>
+        <v>714</v>
       </c>
       <c r="J150">
-        <v>8784</v>
+        <v>11557</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5319,25 +5322,25 @@
         <v>3000</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E151">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G151">
         <v>0.2</v>
       </c>
       <c r="I151">
-        <v>924</v>
+        <v>716</v>
       </c>
       <c r="J151">
-        <v>9075</v>
+        <v>7019</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5348,54 +5351,54 @@
         <v>3000</v>
       </c>
       <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
         <v>13</v>
       </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
       <c r="E152">
         <v>0.7</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G152">
         <v>0.4</v>
       </c>
       <c r="I152">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="J152">
-        <v>9381</v>
+        <v>8926</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B153">
         <v>3000</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G153">
         <v>0.2</v>
       </c>
       <c r="I153">
-        <v>994</v>
+        <v>720</v>
       </c>
       <c r="J153">
-        <v>9037</v>
+        <v>14647</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -5406,25 +5409,25 @@
         <v>3000</v>
       </c>
       <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s">
         <v>13</v>
       </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
       <c r="E154">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G154">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I154">
-        <v>786</v>
+        <v>722</v>
       </c>
       <c r="J154">
-        <v>9487</v>
+        <v>11936</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5435,10 +5438,10 @@
         <v>3000</v>
       </c>
       <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
         <v>13</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
       </c>
       <c r="E155">
         <v>0.8</v>
@@ -5464,10 +5467,10 @@
         <v>3000</v>
       </c>
       <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
         <v>13</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
       </c>
       <c r="E156">
         <v>0.8</v>
@@ -5493,25 +5496,25 @@
         <v>3000</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G157">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I157">
-        <v>366</v>
+        <v>726</v>
       </c>
       <c r="J157">
-        <v>9361</v>
+        <v>8289</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -5522,54 +5525,54 @@
         <v>3000</v>
       </c>
       <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
         <v>13</v>
       </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
       <c r="E158">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G158">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I158">
-        <v>346</v>
+        <v>730</v>
       </c>
       <c r="J158">
-        <v>9404</v>
+        <v>11182</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>3000</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E159">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G159">
         <v>0.2</v>
       </c>
       <c r="I159">
-        <v>870</v>
+        <v>732</v>
       </c>
       <c r="J159">
-        <v>9582</v>
+        <v>15885</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5580,54 +5583,54 @@
         <v>3000</v>
       </c>
       <c r="C160" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E160">
         <v>0.8</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G160">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I160">
-        <v>640</v>
+        <v>734</v>
       </c>
       <c r="J160">
-        <v>9996</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B161">
         <v>3000</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E161">
         <v>0.8</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G161">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I161">
-        <v>1010</v>
+        <v>736</v>
       </c>
       <c r="J161">
-        <v>9511</v>
+        <v>13076</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5638,25 +5641,25 @@
         <v>3000</v>
       </c>
       <c r="C162" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E162">
         <v>0.8</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G162">
         <v>0.4</v>
       </c>
       <c r="I162">
-        <v>788</v>
+        <v>742</v>
       </c>
       <c r="J162">
-        <v>9949</v>
+        <v>6519</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -5667,10 +5670,10 @@
         <v>3000</v>
       </c>
       <c r="C163" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E163">
         <v>0.7</v>
@@ -5682,10 +5685,10 @@
         <v>0.2</v>
       </c>
       <c r="I163">
-        <v>676</v>
+        <v>742</v>
       </c>
       <c r="J163">
-        <v>17858</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5696,54 +5699,54 @@
         <v>3000</v>
       </c>
       <c r="C164" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E164">
         <v>0.7</v>
       </c>
       <c r="F164" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G164">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I164">
-        <v>606</v>
+        <v>742</v>
       </c>
       <c r="J164">
-        <v>17819</v>
+        <v>15288</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>3000</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E165">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G165">
         <v>0.2</v>
       </c>
       <c r="I165">
-        <v>344</v>
+        <v>744</v>
       </c>
       <c r="J165">
-        <v>17828</v>
+        <v>11428</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -5754,112 +5757,112 @@
         <v>3000</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E166">
         <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G166">
         <v>0.4</v>
       </c>
       <c r="I166">
-        <v>352</v>
+        <v>746</v>
       </c>
       <c r="J166">
-        <v>17732</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B167">
         <v>3000</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E167">
         <v>0.7</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>502</v>
+        <v>750</v>
       </c>
       <c r="J167">
-        <v>18352</v>
+        <v>7988</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B168">
         <v>3000</v>
       </c>
       <c r="C168" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E168">
         <v>0.7</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G168">
         <v>0.4</v>
       </c>
       <c r="I168">
-        <v>860</v>
+        <v>752</v>
       </c>
       <c r="J168">
-        <v>17712</v>
+        <v>6476</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B169">
         <v>3000</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G169">
         <v>0.2</v>
       </c>
       <c r="I169">
-        <v>618</v>
+        <v>758</v>
       </c>
       <c r="J169">
-        <v>20182</v>
+        <v>6425</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5870,54 +5873,54 @@
         <v>3000</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E170">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G170">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I170">
-        <v>1124</v>
+        <v>758</v>
       </c>
       <c r="J170">
-        <v>16893</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B171">
         <v>3000</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>0.8</v>
       </c>
       <c r="F171" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G171">
         <v>0.2</v>
       </c>
       <c r="I171">
-        <v>618</v>
+        <v>764</v>
       </c>
       <c r="J171">
-        <v>19200</v>
+        <v>7911</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5928,54 +5931,54 @@
         <v>3000</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
         <v>9</v>
       </c>
       <c r="G172">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I172">
-        <v>586</v>
+        <v>782</v>
       </c>
       <c r="J172">
-        <v>19195</v>
+        <v>13024</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>3000</v>
       </c>
       <c r="C173" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E173">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G173">
         <v>0.2</v>
       </c>
       <c r="I173">
-        <v>342</v>
+        <v>804</v>
       </c>
       <c r="J173">
-        <v>19033</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5986,10 +5989,10 @@
         <v>3000</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E174">
         <v>0.8</v>
@@ -6001,15 +6004,15 @@
         <v>0.4</v>
       </c>
       <c r="I174">
-        <v>346</v>
+        <v>866</v>
       </c>
       <c r="J174">
-        <v>18845</v>
+        <v>13161</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>3000</v>
@@ -6018,22 +6021,22 @@
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G175">
         <v>0.2</v>
       </c>
       <c r="I175">
-        <v>478</v>
+        <v>896</v>
       </c>
       <c r="J175">
-        <v>20298</v>
+        <v>6846</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -6044,25 +6047,25 @@
         <v>3000</v>
       </c>
       <c r="C176" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G176">
         <v>0.4</v>
       </c>
       <c r="I176">
-        <v>872</v>
+        <v>944</v>
       </c>
       <c r="J176">
-        <v>18470</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -6073,30 +6076,30 @@
         <v>3000</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E177">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G177">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I177">
-        <v>596</v>
+        <v>946</v>
       </c>
       <c r="J177">
-        <v>19670</v>
+        <v>16788</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B178">
         <v>3000</v>
@@ -6105,22 +6108,22 @@
         <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E178">
         <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>1118</v>
+        <v>952</v>
       </c>
       <c r="J178">
-        <v>17192</v>
+        <v>8795</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -6131,25 +6134,25 @@
         <v>3000</v>
       </c>
       <c r="C179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E179">
         <v>0.7</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I179">
-        <v>742</v>
+        <v>976</v>
       </c>
       <c r="J179">
-        <v>18100</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6160,10 +6163,10 @@
         <v>3000</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>0.7</v>
@@ -6175,97 +6178,97 @@
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>712</v>
+        <v>994</v>
       </c>
       <c r="J180">
-        <v>18464</v>
+        <v>17331</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B181">
         <v>3000</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E181">
         <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G181">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I181">
-        <v>338</v>
+        <v>996</v>
       </c>
       <c r="J181">
-        <v>17740</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B182">
         <v>3000</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E182">
         <v>0.7</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G182">
         <v>0.4</v>
       </c>
       <c r="I182">
-        <v>326</v>
+        <v>1028</v>
       </c>
       <c r="J182">
-        <v>17553</v>
+        <v>11560</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B183">
         <v>3000</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F183" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G183">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I183">
-        <v>884</v>
+        <v>1054</v>
       </c>
       <c r="J183">
-        <v>17920</v>
+        <v>8586</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6276,54 +6279,54 @@
         <v>3000</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E184">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G184">
         <v>0.4</v>
       </c>
       <c r="I184">
-        <v>614</v>
+        <v>1074</v>
       </c>
       <c r="J184">
-        <v>18526</v>
+        <v>18703</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B185">
         <v>3000</v>
       </c>
       <c r="C185" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E185">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G185">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I185">
-        <v>946</v>
+        <v>1084</v>
       </c>
       <c r="J185">
-        <v>18223</v>
+        <v>12043</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -6334,71 +6337,71 @@
         <v>3000</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E186">
         <v>0.7</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G186">
         <v>0.4</v>
       </c>
       <c r="I186">
-        <v>748</v>
+        <v>1100</v>
       </c>
       <c r="J186">
-        <v>18745</v>
+        <v>15489</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B187">
         <v>3000</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E187">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F187" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G187">
         <v>0.2</v>
       </c>
       <c r="I187">
-        <v>702</v>
+        <v>1100</v>
       </c>
       <c r="J187">
-        <v>18221</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B188">
         <v>3000</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E188">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F188" t="s">
         <v>9</v>
@@ -6407,68 +6410,68 @@
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>674</v>
+        <v>1106</v>
       </c>
       <c r="J188">
-        <v>18621</v>
+        <v>7922</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B189">
         <v>3000</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E189">
         <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
-        <v>336</v>
+        <v>1106</v>
       </c>
       <c r="J189">
-        <v>18182</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B190">
         <v>3000</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E190">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
       </c>
       <c r="G190">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I190">
-        <v>314</v>
+        <v>1108</v>
       </c>
       <c r="J190">
-        <v>18390</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -6479,83 +6482,83 @@
         <v>3000</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G191">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I191">
-        <v>834</v>
+        <v>1108</v>
       </c>
       <c r="J191">
-        <v>18573</v>
+        <v>21682</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B192">
         <v>3000</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E192">
         <v>0.8</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G192">
         <v>0.4</v>
       </c>
       <c r="I192">
-        <v>592</v>
+        <v>1110</v>
       </c>
       <c r="J192">
-        <v>19397</v>
+        <v>7861</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B193">
         <v>3000</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>0.8</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G193">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I193">
-        <v>960</v>
+        <v>1110</v>
       </c>
       <c r="J193">
-        <v>19181</v>
+        <v>12006</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -6566,30 +6569,30 @@
         <v>3000</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G194">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I194">
-        <v>688</v>
+        <v>1110</v>
       </c>
       <c r="J194">
-        <v>19468</v>
+        <v>19303</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>3000</v>
@@ -6598,7 +6601,7 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E195">
         <v>0.7</v>
@@ -6610,10 +6613,10 @@
         <v>0.2</v>
       </c>
       <c r="I195">
-        <v>1154</v>
+        <v>1112</v>
       </c>
       <c r="J195">
-        <v>6850</v>
+        <v>15477</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -6627,27 +6630,27 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G196">
         <v>0.4</v>
       </c>
       <c r="I196">
-        <v>1162</v>
+        <v>1112</v>
       </c>
       <c r="J196">
-        <v>6862</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B197">
         <v>3000</v>
@@ -6656,7 +6659,7 @@
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E197">
         <v>0.7</v>
@@ -6665,13 +6668,13 @@
         <v>10</v>
       </c>
       <c r="G197">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I197">
-        <v>1186</v>
+        <v>1112</v>
       </c>
       <c r="J197">
-        <v>6870</v>
+        <v>13735</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -6685,27 +6688,27 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E198">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G198">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I198">
-        <v>1144</v>
+        <v>1116</v>
       </c>
       <c r="J198">
-        <v>6879</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>3000</v>
@@ -6714,27 +6717,27 @@
         <v>7</v>
       </c>
       <c r="D199" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E199">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G199">
         <v>0.2</v>
       </c>
       <c r="I199">
-        <v>1174</v>
+        <v>1116</v>
       </c>
       <c r="J199">
-        <v>6902</v>
+        <v>19907</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>3000</v>
@@ -6743,85 +6746,85 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E200">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F200" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G200">
         <v>0.4</v>
       </c>
       <c r="I200">
-        <v>1186</v>
+        <v>1118</v>
       </c>
       <c r="J200">
-        <v>6980</v>
+        <v>19734</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>3000</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E201">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G201">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I201">
-        <v>1162</v>
+        <v>1118</v>
       </c>
       <c r="J201">
-        <v>6912</v>
+        <v>17652</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>3000</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D202" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F202" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G202">
         <v>0.4</v>
       </c>
       <c r="I202">
-        <v>1176</v>
+        <v>1118</v>
       </c>
       <c r="J202">
-        <v>6905</v>
+        <v>17394</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>3000</v>
@@ -6830,7 +6833,7 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E203">
         <v>0.8</v>
@@ -6839,18 +6842,18 @@
         <v>9</v>
       </c>
       <c r="G203">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I203">
-        <v>1160</v>
+        <v>1122</v>
       </c>
       <c r="J203">
-        <v>6890</v>
+        <v>15831</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B204">
         <v>3000</v>
@@ -6859,27 +6862,27 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>1178</v>
+        <v>1122</v>
       </c>
       <c r="J204">
-        <v>6914</v>
+        <v>15460</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B205">
         <v>3000</v>
@@ -6888,27 +6891,27 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G205">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I205">
-        <v>1164</v>
+        <v>1122</v>
       </c>
       <c r="J205">
-        <v>6901</v>
+        <v>22759</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B206">
         <v>3000</v>
@@ -6917,27 +6920,27 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E206">
         <v>0.8</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G206">
         <v>0.4</v>
       </c>
       <c r="I206">
-        <v>1152</v>
+        <v>1122</v>
       </c>
       <c r="J206">
-        <v>6900</v>
+        <v>18802</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B207">
         <v>3000</v>
@@ -6946,22 +6949,22 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E207">
         <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G207">
         <v>0.2</v>
       </c>
       <c r="I207">
-        <v>1146</v>
+        <v>1124</v>
       </c>
       <c r="J207">
-        <v>6923</v>
+        <v>15795</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6975,27 +6978,27 @@
         <v>7</v>
       </c>
       <c r="D208" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G208">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I208">
-        <v>1172</v>
+        <v>1124</v>
       </c>
       <c r="J208">
-        <v>6993</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B209">
         <v>3000</v>
@@ -7004,27 +7007,27 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E209">
         <v>0.8</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G209">
         <v>0.2</v>
       </c>
       <c r="I209">
-        <v>1158</v>
+        <v>1126</v>
       </c>
       <c r="J209">
-        <v>6946</v>
+        <v>15796</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>3000</v>
@@ -7033,22 +7036,22 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G210">
         <v>0.4</v>
       </c>
       <c r="I210">
-        <v>1168</v>
+        <v>1128</v>
       </c>
       <c r="J210">
-        <v>6941</v>
+        <v>15482</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7059,83 +7062,83 @@
         <v>3000</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F211" t="s">
         <v>9</v>
       </c>
       <c r="G211">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I211">
-        <v>634</v>
+        <v>1132</v>
       </c>
       <c r="J211">
-        <v>5674</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B212">
         <v>3000</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F212" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G212">
         <v>0.4</v>
       </c>
       <c r="I212">
-        <v>554</v>
+        <v>1132</v>
       </c>
       <c r="J212">
-        <v>5729</v>
+        <v>20601</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B213">
         <v>3000</v>
       </c>
       <c r="C213" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E213">
         <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G213">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I213">
-        <v>382</v>
+        <v>1134</v>
       </c>
       <c r="J213">
-        <v>5692</v>
+        <v>19283</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -7146,25 +7149,25 @@
         <v>3000</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E214">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G214">
         <v>0.4</v>
       </c>
       <c r="I214">
-        <v>366</v>
+        <v>1136</v>
       </c>
       <c r="J214">
-        <v>5560</v>
+        <v>7874</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -7175,25 +7178,25 @@
         <v>3000</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E215">
         <v>0.7</v>
       </c>
       <c r="F215" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G215">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I215">
-        <v>998</v>
+        <v>1136</v>
       </c>
       <c r="J215">
-        <v>5815</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -7204,54 +7207,54 @@
         <v>3000</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E216">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G216">
         <v>0.4</v>
       </c>
       <c r="I216">
-        <v>938</v>
+        <v>1136</v>
       </c>
       <c r="J216">
-        <v>6235</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B217">
         <v>3000</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D217" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E217">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G217">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I217">
-        <v>1022</v>
+        <v>1138</v>
       </c>
       <c r="J217">
-        <v>5923</v>
+        <v>14640</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7262,25 +7265,25 @@
         <v>3000</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E218">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G218">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I218">
-        <v>1008</v>
+        <v>1138</v>
       </c>
       <c r="J218">
-        <v>6270</v>
+        <v>8136</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7291,141 +7294,141 @@
         <v>3000</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G219">
         <v>0.2</v>
       </c>
       <c r="I219">
-        <v>646</v>
+        <v>1140</v>
       </c>
       <c r="J219">
-        <v>5668</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>3000</v>
       </c>
       <c r="C220" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>0.8</v>
       </c>
       <c r="F220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G220">
         <v>0.4</v>
       </c>
       <c r="I220">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="J220">
-        <v>6908</v>
+        <v>16080</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B221">
         <v>3000</v>
       </c>
       <c r="C221" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F221" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G221">
         <v>0.2</v>
       </c>
       <c r="I221">
-        <v>398</v>
+        <v>1140</v>
       </c>
       <c r="J221">
-        <v>5755</v>
+        <v>19410</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>3000</v>
       </c>
       <c r="C222" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E222">
         <v>0.8</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G222">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I222">
-        <v>654</v>
+        <v>1140</v>
       </c>
       <c r="J222">
-        <v>5962</v>
+        <v>19552</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B223">
         <v>3000</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E223">
         <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G223">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I223">
-        <v>1000</v>
+        <v>1140</v>
       </c>
       <c r="J223">
-        <v>5794</v>
+        <v>17372</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7436,54 +7439,54 @@
         <v>3000</v>
       </c>
       <c r="C224" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G224">
         <v>0.4</v>
       </c>
       <c r="I224">
-        <v>1158</v>
+        <v>1142</v>
       </c>
       <c r="J224">
-        <v>7001</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B225">
         <v>3000</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F225" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G225">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I225">
-        <v>1070</v>
+        <v>1142</v>
       </c>
       <c r="J225">
-        <v>5888</v>
+        <v>19377</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7494,25 +7497,25 @@
         <v>3000</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E226">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="J226">
-        <v>6709</v>
+        <v>6879</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7526,27 +7529,27 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E227">
         <v>0.7</v>
       </c>
       <c r="F227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G227">
         <v>0.2</v>
       </c>
       <c r="I227">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="J227">
-        <v>13749</v>
+        <v>13744</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B228">
         <v>3000</v>
@@ -7555,27 +7558,27 @@
         <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E228">
         <v>0.7</v>
       </c>
       <c r="F228" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G228">
         <v>0.4</v>
       </c>
       <c r="I228">
-        <v>1166</v>
+        <v>1146</v>
       </c>
       <c r="J228">
-        <v>13741</v>
+        <v>7583</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B229">
         <v>3000</v>
@@ -7584,22 +7587,22 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F229" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G229">
         <v>0.2</v>
       </c>
       <c r="I229">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="J229">
-        <v>13744</v>
+        <v>9813</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -7613,22 +7616,22 @@
         <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E230">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F230" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G230">
         <v>0.4</v>
       </c>
       <c r="I230">
-        <v>1112</v>
+        <v>1148</v>
       </c>
       <c r="J230">
-        <v>13735</v>
+        <v>19817</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7642,27 +7645,27 @@
         <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E231">
         <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G231">
         <v>0.2</v>
       </c>
       <c r="I231">
-        <v>1170</v>
+        <v>1150</v>
       </c>
       <c r="J231">
-        <v>13823</v>
+        <v>13749</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B232">
         <v>3000</v>
@@ -7671,27 +7674,27 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E232">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G232">
         <v>0.4</v>
       </c>
       <c r="I232">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="J232">
-        <v>13946</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B233">
         <v>3000</v>
@@ -7700,22 +7703,22 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E233">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G233">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I233">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="J233">
-        <v>13785</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7729,27 +7732,27 @@
         <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G234">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I234">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="J234">
-        <v>13851</v>
+        <v>17509</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B235">
         <v>3000</v>
@@ -7758,10 +7761,10 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F235" t="s">
         <v>9</v>
@@ -7770,15 +7773,15 @@
         <v>0.2</v>
       </c>
       <c r="I235">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="J235">
-        <v>13885</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B236">
         <v>3000</v>
@@ -7787,22 +7790,22 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E236">
         <v>0.8</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G236">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I236">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="J236">
-        <v>13857</v>
+        <v>7514</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7816,27 +7819,27 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E237">
         <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G237">
         <v>0.2</v>
       </c>
       <c r="I237">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="J237">
-        <v>13864</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B238">
         <v>3000</v>
@@ -7845,22 +7848,22 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E238">
         <v>0.8</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G238">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I238">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="J238">
-        <v>13896</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -7874,27 +7877,27 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E239">
         <v>0.8</v>
       </c>
       <c r="F239" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G239">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I239">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="J239">
-        <v>14133</v>
+        <v>17602</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B240">
         <v>3000</v>
@@ -7903,22 +7906,22 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G240">
         <v>0.4</v>
       </c>
       <c r="I240">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="J240">
-        <v>14174</v>
+        <v>6862</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7932,22 +7935,22 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E241">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F241" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G241">
         <v>0.2</v>
       </c>
       <c r="I241">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="J241">
-        <v>14009</v>
+        <v>17408</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -7961,22 +7964,22 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G242">
         <v>0.4</v>
       </c>
       <c r="I242">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="J242">
-        <v>14084</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7987,54 +7990,54 @@
         <v>3000</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E243">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F243" t="s">
         <v>9</v>
       </c>
       <c r="G243">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I243">
-        <v>576</v>
+        <v>1164</v>
       </c>
       <c r="J243">
-        <v>10928</v>
+        <v>13857</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B244">
         <v>3000</v>
       </c>
       <c r="C244" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E244">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G244">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I244">
-        <v>944</v>
+        <v>1164</v>
       </c>
       <c r="J244">
-        <v>13671</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8045,25 +8048,25 @@
         <v>3000</v>
       </c>
       <c r="C245" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E245">
         <v>0.7</v>
       </c>
       <c r="F245" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G245">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I245">
-        <v>384</v>
+        <v>1166</v>
       </c>
       <c r="J245">
-        <v>11870</v>
+        <v>13741</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -8074,25 +8077,25 @@
         <v>3000</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E246">
         <v>0.7</v>
       </c>
       <c r="F246" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G246">
         <v>0.4</v>
       </c>
       <c r="I246">
-        <v>388</v>
+        <v>1166</v>
       </c>
       <c r="J246">
-        <v>11861</v>
+        <v>17273</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -8103,25 +8106,25 @@
         <v>3000</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E247">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G247">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I247">
-        <v>926</v>
+        <v>1168</v>
       </c>
       <c r="J247">
-        <v>11809</v>
+        <v>13896</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8132,83 +8135,83 @@
         <v>3000</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E248">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G248">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I248">
-        <v>1014</v>
+        <v>1170</v>
       </c>
       <c r="J248">
-        <v>14129</v>
+        <v>13885</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B249">
         <v>3000</v>
       </c>
       <c r="C249" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G249">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I249">
-        <v>1004</v>
+        <v>1170</v>
       </c>
       <c r="J249">
-        <v>11639</v>
+        <v>7271</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B250">
         <v>3000</v>
       </c>
       <c r="C250" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G250">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I250">
-        <v>1056</v>
+        <v>1170</v>
       </c>
       <c r="J250">
-        <v>13495</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8219,25 +8222,25 @@
         <v>3000</v>
       </c>
       <c r="C251" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G251">
         <v>0.2</v>
       </c>
       <c r="I251">
-        <v>654</v>
+        <v>1172</v>
       </c>
       <c r="J251">
-        <v>13233</v>
+        <v>17135</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -8248,199 +8251,199 @@
         <v>3000</v>
       </c>
       <c r="C252" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E252">
         <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G252">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I252">
-        <v>1138</v>
+        <v>1174</v>
       </c>
       <c r="J252">
-        <v>14640</v>
+        <v>13864</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B253">
         <v>3000</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F253" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G253">
         <v>0.2</v>
       </c>
       <c r="I253">
-        <v>398</v>
+        <v>1174</v>
       </c>
       <c r="J253">
-        <v>11822</v>
+        <v>7427</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B254">
         <v>3000</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F254" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G254">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I254">
-        <v>866</v>
+        <v>1176</v>
       </c>
       <c r="J254">
-        <v>13161</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B255">
         <v>3000</v>
       </c>
       <c r="C255" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F255" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G255">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I255">
-        <v>980</v>
+        <v>1176</v>
       </c>
       <c r="J255">
-        <v>12615</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B256">
         <v>3000</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E256">
         <v>0.8</v>
       </c>
       <c r="F256" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G256">
         <v>0.4</v>
       </c>
       <c r="I256">
-        <v>1160</v>
+        <v>1176</v>
       </c>
       <c r="J256">
-        <v>14501</v>
+        <v>8604</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B257">
         <v>3000</v>
       </c>
       <c r="C257" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E257">
         <v>0.8</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G257">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I257">
-        <v>958</v>
+        <v>1178</v>
       </c>
       <c r="J257">
-        <v>12275</v>
+        <v>6914</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B258">
         <v>3000</v>
       </c>
       <c r="C258" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G258">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I258">
-        <v>1146</v>
+        <v>1186</v>
       </c>
       <c r="J258">
-        <v>14383</v>
+        <v>6870</v>
       </c>
     </row>
   </sheetData>
